--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,58 +52,52 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
@@ -112,9 +106,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -127,39 +118,45 @@
     <t>though</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>used</t>
+    <t>product</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -169,7 +166,7 @@
     <t>little</t>
   </si>
   <si>
-    <t>one</t>
+    <t>much</t>
   </si>
   <si>
     <t>negative</t>
@@ -181,9 +178,6 @@
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -208,10 +202,10 @@
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
@@ -584,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7204301075268817</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.7311827956989247</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L6">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.704225352112676</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.6037735849056604</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6941747572815534</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.453125</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6578947368421053</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.4492753623188406</v>
+        <v>0.340983606557377</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,31 +1015,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>0.3295081967213115</v>
+        <v>0.2801724137931034</v>
       </c>
       <c r="L10">
-        <v>402</v>
+        <v>195</v>
       </c>
       <c r="M10">
-        <v>402</v>
+        <v>196</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>818</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6216216216216216</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.3070301291248206</v>
+        <v>0.2572614107883817</v>
       </c>
       <c r="L11">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="M11">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>483</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6190476190476191</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>0.2676348547717842</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>353</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5789473684210527</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.25</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5630252100840336</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.1927710843373494</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.1865443425076453</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L15">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>266</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5185185185185185</v>
+        <v>0.472463768115942</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.1322751322751323</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>164</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4927536231884058</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C17">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.1004016064257028</v>
+        <v>0.08764241893076249</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>224</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1403,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4698795180722892</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1421,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18">
-        <v>0.08150744960560911</v>
+        <v>0.03634003893575601</v>
       </c>
       <c r="L18">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="M18">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1445,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1048</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4566929133858268</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C19">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1471,31 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>69</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19">
-        <v>0.027255029201817</v>
-      </c>
-      <c r="L19">
-        <v>42</v>
-      </c>
-      <c r="M19">
-        <v>42</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1499</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1503,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4444444444444444</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1499,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3968253968253968</v>
+        <v>0.34375</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1555,13 +1525,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3833333333333334</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1573,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1581,13 +1551,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.359375</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1599,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1607,13 +1577,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3578947368421053</v>
+        <v>0.28125</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1625,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1633,13 +1603,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3118811881188119</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1651,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1659,13 +1629,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3046875</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1677,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1685,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.303370786516854</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1703,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1711,13 +1681,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2938388625592417</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1729,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1737,13 +1707,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2474226804123711</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1755,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1763,13 +1733,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2244897959183673</v>
+        <v>0.195</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1781,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1789,13 +1759,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2051282051282051</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1807,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>93</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1815,13 +1785,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1795252225519288</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C32">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1833,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>553</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1841,13 +1811,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1772151898734177</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1859,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>260</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1867,13 +1837,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1739130434782609</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1885,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>228</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1893,13 +1863,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1645569620253164</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1911,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>264</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1919,13 +1889,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1542857142857143</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1937,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>148</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1945,13 +1915,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1401869158878505</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1963,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>184</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1971,13 +1941,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.13</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1989,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1997,13 +1967,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1255506607929515</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C39">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2015,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>397</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2023,25 +1993,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1152737752161383</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>307</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2049,13 +2019,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1048387096774194</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2067,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2075,13 +2045,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.09737827715355805</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2093,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>241</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2101,25 +2071,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.08493150684931507</v>
+        <v>0.05766062602965404</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>334</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2127,25 +2097,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.05766062602965404</v>
+        <v>0.05122494432071269</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>572</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2153,51 +2123,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.0556792873051225</v>
+        <v>0.05104408352668213</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <v>25</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.02781289506953224</v>
-      </c>
-      <c r="C46">
-        <v>22</v>
-      </c>
-      <c r="D46">
-        <v>25</v>
-      </c>
-      <c r="E46">
-        <v>0.12</v>
-      </c>
-      <c r="F46">
-        <v>0.88</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>769</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
